--- a/SampleData/ItemInfo.xlsx
+++ b/SampleData/ItemInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garshion\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Repos\garshion\ExcelConvertor\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803574A5-6D82-4810-885D-3950310FE918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE44B52-22B9-4C81-81DD-372A12150DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="12825" windowWidth="28245" windowHeight="18975" activeTab="1" xr2:uid="{3D9A5E8F-CB3C-4315-894D-FBCBE309F1C6}"/>
+    <workbookView xWindow="24000" yWindow="12825" windowWidth="28245" windowHeight="18975" xr2:uid="{3D9A5E8F-CB3C-4315-894D-FBCBE309F1C6}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883BAC52-EEC7-4772-AC35-71B79FD7E5FB}">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -774,7 +774,7 @@
       <c r="G6">
         <v>0.98765432099999995</v>
       </c>
-      <c r="H6" t="b">
+      <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -803,7 +803,7 @@
       <c r="G7">
         <v>0.2</v>
       </c>
-      <c r="H7" t="b">
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="1">
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12088E-F5F8-4808-8F46-238552091A0E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
